--- a/Overall Analysis.xlsx
+++ b/Overall Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blued\Desktop\Self Learn\Logic Guided Machine Learning\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433887C-5C11-47D4-BA09-FA3842769FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041FD0F-59F3-4B8B-873B-4F6FDA231260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4030" yWindow="4340" windowWidth="12850" windowHeight="5860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle Rule" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>Weight</t>
   </si>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>R = PV/nT</t>
+  </si>
+  <si>
+    <t>D = Sqrt((X1-X0)^2 + (Y1-Y0)^2)</t>
+  </si>
+  <si>
+    <t>exp(-(x)^2)/2*pi</t>
   </si>
 </sst>
 </file>
@@ -631,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1145,6 +1163,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1190,7 +1232,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1214,8 +1256,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3855,37 +3900,37 @@
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="28" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -4677,11 +4722,11 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q16" s="5" t="s">
@@ -4832,38 +4877,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A264E6-2446-49AC-A512-308FFC1D2E06}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" customWidth="1"/>
     <col min="26" max="26" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
@@ -4913,30 +4958,30 @@
       <c r="E3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1">
-        <v>593</v>
+      <c r="F3" s="6">
+        <v>509</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="1">
-        <v>5541.4754629999998</v>
+        <v>5219</v>
       </c>
       <c r="I3" s="1">
-        <v>20.374712980000002</v>
+        <v>19.64</v>
       </c>
       <c r="J3" s="6">
-        <v>402.4776</v>
+        <v>390</v>
       </c>
       <c r="O3">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4948,7 +4993,7 @@
       <c r="E4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>132.3442</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -4964,14 +5009,14 @@
         <v>15.601319999999999</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -4983,59 +5028,117 @@
       <c r="E5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>287.27780000000001</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H5" s="1">
-        <v>42744268160</v>
+        <v>35316031435</v>
       </c>
       <c r="I5" s="1">
-        <v>32509619200</v>
+        <v>363691959.10000002</v>
       </c>
       <c r="J5" s="6">
-        <v>220.7364</v>
+        <v>347.1420172</v>
       </c>
       <c r="O5">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="8">
-        <v>0.11948599999999999</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="1">
+        <v>909000</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>593</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2879991</v>
+      </c>
+      <c r="I6" s="15">
+        <v>5280</v>
+      </c>
+      <c r="J6" s="6">
+        <v>306.26</v>
+      </c>
+      <c r="O6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="O7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="8">
-        <v>0.11780500000000001</v>
-      </c>
-      <c r="I6" s="24">
-        <v>6.4799999999999997E-13</v>
-      </c>
-      <c r="J6" s="9">
-        <v>622</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="O8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Overall Analysis.xlsx
+++ b/Overall Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blued\Desktop\Self Learn\Logic Guided Machine Learning\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041FD0F-59F3-4B8B-873B-4F6FDA231260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76025AE4-9E38-4FEB-8B47-25A62EE8527E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>Weight</t>
   </si>
@@ -1232,7 +1232,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1297,6 +1297,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4880,7 +4882,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5089,16 +5091,30 @@
       <c r="B7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="40">
+        <v>358000000</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>985</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="15">
+        <v>311000000</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1.85E-7</v>
+      </c>
+      <c r="J7" s="41">
+        <v>218</v>
+      </c>
       <c r="O7">
         <v>250</v>
       </c>

--- a/Overall Analysis.xlsx
+++ b/Overall Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blued\Desktop\Self Learn\Logic Guided Machine Learning\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76025AE4-9E38-4FEB-8B47-25A62EE8527E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746851BE-4FCA-4A3B-8A3B-5CB9425F765E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>Naïve GA</t>
   </si>
   <si>
-    <t>LGDG with GSR</t>
-  </si>
-  <si>
     <t>Solved</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>exp(-(x)^2)/2*pi</t>
+  </si>
+  <si>
+    <t>LGGA</t>
   </si>
 </sst>
 </file>
@@ -1261,6 +1261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1297,8 +1299,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3902,37 +3902,37 @@
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="31" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -4724,11 +4724,11 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q16" s="5" t="s">
@@ -4882,7 +4882,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4895,35 +4895,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>71</v>
@@ -4932,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>71</v>
@@ -4946,25 +4946,25 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1">
         <v>8978.4010290000006</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="6">
         <v>509</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="1">
         <v>5219</v>
@@ -4981,25 +4981,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1">
         <v>236.30959999999999</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6">
         <v>132.3442</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1">
         <v>210.47489999999999</v>
@@ -5016,25 +5016,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="15">
         <v>96600000000</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="6">
         <v>287.27780000000001</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1">
         <v>35316031435</v>
@@ -5051,25 +5051,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D6" s="1">
         <v>909000</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="6">
         <v>593</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="1">
         <v>2879991</v>
@@ -5086,25 +5086,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="28">
+        <v>358000000</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>985</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="40">
-        <v>358000000</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <v>985</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="H7" s="15">
         <v>311000000</v>
@@ -5112,7 +5112,7 @@
       <c r="I7" s="15">
         <v>1.85E-7</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="29">
         <v>218</v>
       </c>
       <c r="O7">
@@ -5121,17 +5121,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>

--- a/Overall Analysis.xlsx
+++ b/Overall Analysis.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blued\Desktop\Self Learn\Logic Guided Machine Learning\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746851BE-4FCA-4A3B-8A3B-5CB9425F765E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D17B3-7615-46AF-84AB-58080BB44BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle Rule" sheetId="1" r:id="rId1"/>
     <sheet name="Compilation" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Generation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
   <si>
     <t>Weight</t>
   </si>
@@ -320,6 +313,123 @@
   </si>
   <si>
     <t>LGGA</t>
+  </si>
+  <si>
+    <t>Without LGGA</t>
+  </si>
+  <si>
+    <t>Eureqa Minimum Datapoints</t>
+  </si>
+  <si>
+    <t>AI Feynman Minimum Datapoints</t>
+  </si>
+  <si>
+    <t>With LGGA</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>TuringBot Minimum Datapoints</t>
+  </si>
+  <si>
+    <t>I.11.19</t>
+  </si>
+  <si>
+    <t>x1*y1+x2*y2+x3*y3</t>
+  </si>
+  <si>
+    <t>I.12.11</t>
+  </si>
+  <si>
+    <t>q*(Ef+B*v*sin(theta))</t>
+  </si>
+  <si>
+    <t>I.13.12</t>
+  </si>
+  <si>
+    <t>G*m1*m2*(1/r2-1/r1)</t>
+  </si>
+  <si>
+    <t>I.18.4</t>
+  </si>
+  <si>
+    <t>(m1*r1+m2*r2)/(m1+m2)</t>
+  </si>
+  <si>
+    <t>I.18.14</t>
+  </si>
+  <si>
+    <t>m*r*v*sin(theta)</t>
+  </si>
+  <si>
+    <t>I.34.1</t>
+  </si>
+  <si>
+    <t>I.39.11</t>
+  </si>
+  <si>
+    <t>1/(gamma-1)*pr*V</t>
+  </si>
+  <si>
+    <t>I.44.4</t>
+  </si>
+  <si>
+    <t>n*kb*T*ln(V2/V1)</t>
+  </si>
+  <si>
+    <t>I.47.23</t>
+  </si>
+  <si>
+    <t>sqrt(gamma*pr/rho)</t>
+  </si>
+  <si>
+    <t>II.34.11</t>
+  </si>
+  <si>
+    <t>g_*q*B/(2*m)</t>
+  </si>
+  <si>
+    <t>Sqrt((X1-X0)^2 + (Y1-Y0)^2)</t>
+  </si>
+  <si>
+    <t>PV/nT</t>
+  </si>
+  <si>
+    <t>|(n1-n2)/(n1+n2)|^2</t>
+  </si>
+  <si>
+    <t>K*q1*q2 / (r^2)</t>
+  </si>
+  <si>
+    <t>Sin(i)/Sin(r)</t>
+  </si>
+  <si>
+    <t>r1r2/(r1+r2)</t>
+  </si>
+  <si>
+    <t>Enables Discovery</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Unable to run</t>
+  </si>
+  <si>
+    <t>Enables Discovery* (Gives me idea)</t>
+  </si>
+  <si>
+    <t>Reduction (DATA EFFICIENCY/ improvement)%</t>
+  </si>
+  <si>
+    <t>No Sqrt so no discovery</t>
+  </si>
+  <si>
+    <t>m_0/(1-v/c)</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -462,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1187,6 +1303,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1232,7 +1359,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1263,6 +1390,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3902,37 +4035,37 @@
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -4724,11 +4857,11 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q16" s="5" t="s">
@@ -4881,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A264E6-2446-49AC-A512-308FFC1D2E06}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4895,22 +5028,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
@@ -5165,4 +5298,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF8EE5A-8486-463E-9335-E39B58E7E4F6}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <f>100*(C3-D3)/(C3)</f>
+        <v>70</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <f>100*(F3-G3)/(F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="6" t="e">
+        <f>100*(I3-J3)/(I3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="34">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E19" si="0">100*(C4-D4)/(C4)</f>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="34">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H19" si="1">100*(F4-G4)/(F4)</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="6" t="e">
+        <f t="shared" ref="K4:K19" si="2">100*(I4-J4)/(I4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="34">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="34">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="34">
+        <v>188</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="34">
+        <v>500</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="34">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="34">
+        <v>200</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="34">
+        <v>190</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="5">
+        <v>800</v>
+      </c>
+      <c r="G9" s="34">
+        <v>300</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20</v>
+      </c>
+      <c r="G10" s="34">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="34">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5">
+        <v>25</v>
+      </c>
+      <c r="D12" s="34">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <v>25</v>
+      </c>
+      <c r="G12" s="34">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>15</v>
+      </c>
+      <c r="G13" s="34">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="34">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="5">
+        <v>40</v>
+      </c>
+      <c r="D15" s="34">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="34">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="5">
+        <v>65</v>
+      </c>
+      <c r="D16" s="34">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6</v>
+      </c>
+      <c r="G16" s="34">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="5">
+        <v>700</v>
+      </c>
+      <c r="G17" s="34">
+        <v>300</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="5">
+        <v>55</v>
+      </c>
+      <c r="D18" s="34">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="F18" s="5">
+        <v>20</v>
+      </c>
+      <c r="G18" s="34">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="7">
+        <v>40</v>
+      </c>
+      <c r="D19" s="35">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>25</v>
+      </c>
+      <c r="G19" s="35">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>